--- a/data/trans_media/Q23_2_2015-Edad-trans_media.xlsx
+++ b/data/trans_media/Q23_2_2015-Edad-trans_media.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,24; 16,55</t>
+          <t>15,29; 16,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,46; 17,63</t>
+          <t>15,32; 17,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 16,62</t>
+          <t>15,45; 16,61</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,87</t>
+          <t>16,69; 17,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 20,24</t>
+          <t>17,34; 20,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,07; 18,26</t>
+          <t>17,09; 18,32</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,44; 18,11</t>
+          <t>16,33; 18,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 21,23</t>
+          <t>16,9; 21,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 18,56</t>
+          <t>16,86; 18,66</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 21,09</t>
+          <t>16,26; 20,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,5; 20,48</t>
+          <t>16,55; 21,1</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 19,05</t>
+          <t>16,71; 19,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,27; 20,23</t>
+          <t>17,33; 20,41</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,88; 18,16</t>
+          <t>15,21; 18,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 17,97</t>
+          <t>15,54; 17,95</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,78</t>
+          <t>16,72; 17,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,37; 19,03</t>
+          <t>17,37; 18,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,88</t>
+          <t>16,98; 17,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23_2_2015-Edad-trans_media.xlsx
+++ b/data/trans_media/Q23_2_2015-Edad-trans_media.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,29; 16,52</t>
+          <t>15,29; 16,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 17,62</t>
+          <t>15,32; 17,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 16,61</t>
+          <t>15,58; 16,69</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,91</t>
+          <t>16,69; 17,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 20,49</t>
+          <t>17,29; 20,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 18,32</t>
+          <t>17,05; 18,28</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,33; 18,01</t>
+          <t>16,42; 18,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,9; 21,35</t>
+          <t>16,89; 21,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 18,66</t>
+          <t>16,86; 18,63</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,26; 20,99</t>
+          <t>16,31; 20,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 21,1</t>
+          <t>16,56; 20,79</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,18</t>
+          <t>16,68; 19,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,33; 20,41</t>
+          <t>17,33; 20,47</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,21; 18,18</t>
+          <t>15,21; 17,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,54; 17,95</t>
+          <t>15,55; 17,96</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,85</t>
+          <t>16,75; 17,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,37; 18,98</t>
+          <t>17,3; 18,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,85</t>
+          <t>16,96; 17,84</t>
         </is>
       </c>
     </row>
